--- a/아카데미 수업내용 6월/게임 기획서/김혜령(6월).xlsx
+++ b/아카데미 수업내용 6월/게임 기획서/김혜령(6월).xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\아카데미 수업내용 6월\게임 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DA8334-6DEC-44C5-98A6-DB096F1E0A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBA2249-A0C2-4D3C-96B9-443BE196F891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{85D800F9-F0EC-4E12-BA3D-62021A8D4369}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{85D800F9-F0EC-4E12-BA3D-62021A8D4369}"/>
   </bookViews>
   <sheets>
     <sheet name="6.25 런 앤 펀치 데이터테이블 실습" sheetId="1" r:id="rId1"/>
+    <sheet name="6.28 프로토 타입 기획서 준비 페이지" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="122">
   <si>
     <t>PC 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,6 +313,202 @@
   </si>
   <si>
     <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 맡은 파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>런 앤 펀치 속 PC의 기술기획서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 회피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 패링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 필살기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 게임에서 PC에게 있는 기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부화 해봅시다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더킹(회피)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약공격(잽) / 강공격(바디블로우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필살기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의 기술에 존재하는 기능들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 약공격에 대하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한번의 버튼 &gt;한번의 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 3타 까지 있으며, 3타 이후에는 1타로 돌아감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 강공격에 대하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 회피에 대하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한번의 버튼&gt;한번의 회피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5초의 쿨타임이 존재함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3타에는 0.1초 기절이 존재 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격시 0.5초 기절이 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피시 1초의 무적이 존재함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 패링에 대하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강공격이 폭발형 탄알을 제외한 모든 탄알에 맞았을때 발동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서지는 오브젝트에 대미지를 입힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC에게 대미지를 입히지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2과 4의 중간내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2의 판정과 4의 판정이 동시에 일어나면, 두 판정을 모두 실행함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짧은 범위내의 모든 탄알을 삭제함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 필살기에 대하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필살기 게이지가 100%로 가득 찼을때, 약공격 키가 필살기로 변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게이지가 100% 일때 약공격을 제외한 모든 기술 사용 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC에게 1초의 기절을 부여함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필살기 게이지를 모두 소모함(100%를 모두 소모함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC의 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC의 기술에 피격되었을때 기절되는 상황은 존재하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄환에 피격되었을때 0.5초의 무적이 존재함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필살기 사용시 보여지는 애니메이션, 화면 연출동안 게이지가 회복되지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필살기 사용시 보여지는 애니메이션, 화면 연출동안 무적이 존재함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">게이지가 매 초마다 0.1% 씩 회복된다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필살기 게이지를 5% 충전한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더킹의 쿨타임을 초기화한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X키를 사용한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z + X 키를 사용한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z 키를 사용한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더킹 중에 약공격 키를 눌러서 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번 2번으로 올리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피의 방향으로는, 플레이어가 키를 입력한 것을 1순위, 키 입력이 없을 시 직전에 PC가 바라본 방향으로 회피한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,7 +516,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +529,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -503,7 +709,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,9 +723,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -546,25 +749,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -883,18 +1071,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AF8C97-1749-4229-B15C-D1A8BB544DE2}">
   <dimension ref="A2:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>1000</v>
       </c>
@@ -902,7 +1090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>2000</v>
       </c>
@@ -910,7 +1098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>3000</v>
       </c>
@@ -918,7 +1106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>4000</v>
       </c>
@@ -926,7 +1114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>5000</v>
       </c>
@@ -934,7 +1122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>6000</v>
       </c>
@@ -942,220 +1130,195 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C12" s="10" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="12"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C13" s="10" t="s">
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="10" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="12"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C14" s="10" t="s">
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="10" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="12"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C15" s="10" t="s">
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="10" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="12"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C16" s="10" t="s">
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="10" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="12"/>
+      <c r="L16" s="11"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="10" t="s">
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="12"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="10" t="s">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="12"/>
+      <c r="L18" s="11"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="7" t="s">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="7"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="5"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="10" t="s">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="12"/>
+      <c r="L21" s="11"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
@@ -1190,16 +1353,16 @@
       <c r="AD23" s="2"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
@@ -1207,52 +1370,52 @@
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="10" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="10" t="s">
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="12" t="s">
+      <c r="L30" s="10"/>
+      <c r="M30" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N30" s="12"/>
-      <c r="O30" s="11"/>
-      <c r="R30" s="13" t="s">
+      <c r="N30" s="11"/>
+      <c r="O30" s="10"/>
+      <c r="R30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="S30" s="10" t="s">
+      <c r="S30" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="13" t="s">
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="X30" s="10" t="s">
+      <c r="X30" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="10" t="s">
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="12" t="s">
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AD30" s="11"/>
+      <c r="AD30" s="10"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
@@ -1276,121 +1439,121 @@
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="3"/>
-      <c r="R31" s="13">
+      <c r="R31" s="12">
         <v>5001</v>
       </c>
-      <c r="S31" s="10" t="s">
+      <c r="S31" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="13" t="s">
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="11">
+      <c r="X31" s="9"/>
+      <c r="Y31" s="10">
         <v>0.1</v>
       </c>
-      <c r="Z31" s="10" t="s">
+      <c r="Z31" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="12" t="s">
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AD31" s="11"/>
+      <c r="AD31" s="10"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C32" s="7"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="8" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N32" s="8"/>
-      <c r="O32" s="9"/>
-      <c r="R32" s="13">
+      <c r="N32" s="7"/>
+      <c r="O32" s="8"/>
+      <c r="R32" s="12">
         <v>5002</v>
       </c>
-      <c r="S32" s="10" t="s">
+      <c r="S32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="13" t="s">
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="11">
+      <c r="X32" s="9"/>
+      <c r="Y32" s="10">
         <v>0.5</v>
       </c>
-      <c r="Z32" s="10" t="s">
+      <c r="Z32" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="12" t="s">
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AD32" s="11"/>
+      <c r="AD32" s="10"/>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="10" t="s">
+      <c r="D33" s="10"/>
+      <c r="E33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="10" t="s">
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L33" s="11"/>
-      <c r="M33" s="12" t="s">
+      <c r="L33" s="10"/>
+      <c r="M33" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="N33" s="12"/>
-      <c r="O33" s="11"/>
-      <c r="R33" s="13">
+      <c r="N33" s="11"/>
+      <c r="O33" s="10"/>
+      <c r="R33" s="12">
         <v>5003</v>
       </c>
-      <c r="S33" s="10" t="s">
+      <c r="S33" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="13" t="s">
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="11">
+      <c r="X33" s="9"/>
+      <c r="Y33" s="10">
         <v>1</v>
       </c>
-      <c r="Z33" s="10" t="s">
+      <c r="Z33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="12" t="s">
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AD33" s="11"/>
+      <c r="AD33" s="10"/>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
@@ -1414,124 +1577,119 @@
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
-      <c r="R34" s="19">
+      <c r="R34" s="13">
         <v>5004</v>
       </c>
-      <c r="S34" s="7" t="s">
+      <c r="S34" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="19" t="s">
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="9">
+      <c r="X34" s="6"/>
+      <c r="Y34" s="8">
         <v>1</v>
       </c>
-      <c r="Z34" s="20" t="s">
+      <c r="Z34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="18"/>
-      <c r="AC34" s="17" t="s">
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AD34" s="18"/>
+      <c r="AD34" s="8"/>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="10" t="s">
+      <c r="D35" s="10"/>
+      <c r="E35" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="10" t="s">
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="11"/>
-      <c r="M35" s="12" t="s">
+      <c r="L35" s="10"/>
+      <c r="M35" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N35" s="12"/>
-      <c r="O35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="10"/>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="7" t="s">
+      <c r="D36" s="8"/>
+      <c r="E36" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="7" t="s">
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="8" t="s">
+      <c r="L36" s="8"/>
+      <c r="M36" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N36" s="8"/>
-      <c r="O36" s="9"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="8"/>
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C37" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
+      <c r="J37" s="5"/>
       <c r="K37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="5" t="s">
+      <c r="L37" s="5"/>
+      <c r="M37" t="s">
         <v>48</v>
       </c>
-      <c r="N37" s="5"/>
-      <c r="O37" s="6"/>
+      <c r="O37" s="5"/>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="C38" s="7"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="8" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="N38" s="8"/>
-      <c r="O38" s="9"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="8"/>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D39" s="3"/>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F39" s="2"/>
@@ -1539,11 +1697,11 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="15" t="s">
+      <c r="K39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L39" s="3"/>
-      <c r="M39" s="16" t="s">
+      <c r="M39" s="2" t="s">
         <v>56</v>
       </c>
       <c r="N39" s="2"/>
@@ -1551,71 +1709,30 @@
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C40" s="4"/>
-      <c r="D40" s="6"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="6"/>
+      <c r="J40" s="5"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="14" t="s">
+      <c r="L40" s="5"/>
+      <c r="M40" t="s">
         <v>57</v>
       </c>
-      <c r="N40" s="5"/>
-      <c r="O40" s="6"/>
+      <c r="O40" s="5"/>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B41" s="5"/>
-      <c r="C41" s="16"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="16"/>
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="16"/>
+      <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="16"/>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="5"/>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
@@ -1632,4 +1749,275 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906B5704-5E23-428B-B686-895C5FFAFFB0}">
+  <dimension ref="B2:K59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C57" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/아카데미 수업내용 6월/게임 기획서/김혜령(6월).xlsx
+++ b/아카데미 수업내용 6월/게임 기획서/김혜령(6월).xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\아카데미 수업내용 6월\게임 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBA2249-A0C2-4D3C-96B9-443BE196F891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F888219-739A-4076-8E2D-27D503C5A8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{85D800F9-F0EC-4E12-BA3D-62021A8D4369}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="15210" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{85D800F9-F0EC-4E12-BA3D-62021A8D4369}"/>
   </bookViews>
   <sheets>
     <sheet name="6.25 런 앤 펀치 데이터테이블 실습" sheetId="1" r:id="rId1"/>
-    <sheet name="6.28 프로토 타입 기획서 준비 페이지" sheetId="2" r:id="rId2"/>
+    <sheet name="6.28 - 7.01 프로토 타입 기획서 준비 페이지" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="158">
   <si>
     <t>PC 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,14 +424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2과 4의 중간내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2의 판정과 4의 판정이 동시에 일어나면, 두 판정을 모두 실행함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>짧은 범위내의 모든 탄알을 삭제함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -504,11 +496,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3번 2번으로 올리기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회피의 방향으로는, 플레이어가 키를 입력한 것을 1순위, 키 입력이 없을 시 직전에 PC가 바라본 방향으로 회피한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4번의 판정이 함께 적용되도 효과가 사라지지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번의 판정이 함께 적용되도 효과가 사라지지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획서의 순서를 정해봅시다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC에 대한 기획서 + PC의 기술(공격) 기획서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 쓸 파트 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키한메특방은 제외하기로 했으니 신경쓰지 말고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC에 대한 기획서가 먼저 오고, PC의 기술이 나와야 흐름상 자연스럽다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC 자체에 대한 기획서에는 뭐가 올까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉과 외형, 왜 그런 설정을 했는지에 대한 약간의 스토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC 기술 기획서의 순서는 어떻게 될까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레퍼런스의 수준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적어도 그림을 확실히 알 수 있는 수준이어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 제안서가 아니므로, 어그로용 레퍼런스는 지양하도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술 자원 &gt; 공격 &gt; 회피 &gt; 패링 &gt; 필살기 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a) 약공격 3타 / 3번째 타수에 매우 짧은 기절 상태이상 효과 존재 / 오브젝트에 약한 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1. 약공격 / 강공격을 나눈 것에 대한 의도와 각각의 세부 설명 + 레퍼런스 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1. 회피 기술 레퍼런스 삽입, 세부 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. PC의 공격이 주먹공격인 것에 대한 의도 설명 + 조작키 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 회피 기술에 대한 의도 설명 + 조작키 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b) 강공격은 후술 할 것을 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 강공격 세부 설명 + 조작키 설명 + 레퍼런스 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a) 강공격에 짧은 기절 상태이상 효과 존재 / 오브젝트에 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b) 패링과 동시에 효과가 적용되는 예시 그림으로 흥?미유발 (어떻게 될까요?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 패링의 의도 설명 + 조작키 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이후에 다른 기술과 함께 설명할 것을 넣어두기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 기술자원(강패링 게이지)에 대한 의도와 UI를 포함한 간략한 설명 + 초당 충전 그림 설명 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">b) 기술 자원 충전 그림 설명 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c) 강공격과 동시에 효과가 적용될 때의 답안을 그림으로 제시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 필살기 의도 설명 + 조작키 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1. 패링의 조건 설명 + 패링의 범위 설명 + 탄알 삭제 효과 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-1. 필살기 조건과 상태 에 대한 설명 + 약공격을 제외한 모든 스킬 사용 가능에 대한 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필살기 범위와 탄알 삭제 효과 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">b) 범위 내 Enemy NPC 에게 기절 상태이상 부여 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c) 기술 자원 100% 소모에 대한 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a) 회피에 짧은 무적 효과 + 쿨타임 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a) 짧은 무적 + 회피 쿨타임 초기화 설명 / 오브젝트에 강한 대미지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a) 무적 + 회피 쿨타임 초기화 설명 / 오브젝트에 매우 강한 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b) 애니메이션 프레임과 약공격 키 조합시 강공격이 나가는 것 설명(회피 효과 즉시 종료 &amp; 강공격을 함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c) 회피 방향 1순위 &amp; 2순위에 대한걸 애니메이션 프레임으로 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1753,10 +1897,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906B5704-5E23-428B-B686-895C5FFAFFB0}">
-  <dimension ref="B2:K59"/>
+  <dimension ref="A2:Z111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1821,199 +1965,411 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>89</v>
       </c>
-      <c r="J26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>119</v>
-      </c>
-      <c r="K27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D32" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D47" t="s">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D48" t="s">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D50" t="s">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D51" t="s">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C59" s="14" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D52" t="s">
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D53" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D54" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C57" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C59" t="s">
-        <v>113</v>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/아카데미 수업내용 6월/게임 기획서/김혜령(6월).xlsx
+++ b/아카데미 수업내용 6월/게임 기획서/김혜령(6월).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\아카데미 수업내용 6월\게임 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F888219-739A-4076-8E2D-27D503C5A8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7B5704-7334-4421-9EAB-D47DF8E4D14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="15210" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{85D800F9-F0EC-4E12-BA3D-62021A8D4369}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16080" firstSheet="1" activeTab="2" xr2:uid="{85D800F9-F0EC-4E12-BA3D-62021A8D4369}"/>
   </bookViews>
   <sheets>
     <sheet name="6.25 런 앤 펀치 데이터테이블 실습" sheetId="1" r:id="rId1"/>
     <sheet name="6.28 - 7.01 프로토 타입 기획서 준비 페이지" sheetId="2" r:id="rId2"/>
+    <sheet name="7.02~7.05 pc와 pc 기술 프로토타입 기획서" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="195">
   <si>
     <t>PC 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -653,6 +654,154 @@
   </si>
   <si>
     <t>c) 회피 방향 1순위 &amp; 2순위에 대한걸 애니메이션 프레임으로 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. PC에 대하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">우리는 7팀- 런앤 펀치 / PC와 PC기술 기획서 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. PC의 기술에 대하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 기술 자원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4. PC의 기술 - 일반 공격과 강 공격 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. PC의 기술 - 회피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-2. 회피와 강 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-3. 회피 방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1. 일반 공격의 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1. 회피의 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. PC의 기술 - 강 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-1. 강 공격의 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. PC의 기술 - 패링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1. 패링의 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-2. 강 공격과 패링의 판정이 겹치면?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2. 판정 겹침에 대한 해답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.  PC의 기술 - 필살기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-1. 필살기의 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-2. 필살기 사용 가능 때 사용 가능한 기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 변수 &amp; 리소스 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;PC 외형 레퍼런스_ 토리코&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; 실제 프로토 타입에서 사용할 unity 에셋, Y봇&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A. PC의 컨셉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">마법을 사용하지 못하는 대신, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">살아남기 위해 근육을 키운, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마치 보디빌더 같은 외형을 갖췄다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상체와 하체가 균등하게 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발달 되어 있는 근육질의 남성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B. 프로토 타입에서 PC를 Y봇으로 설정한 이유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">프로토 타입 상태에서 가장 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요한 것은 액션이 잘 보이는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그렇기에, 겉 모습은 그다지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요하지 않다고 판단, Y봇으로 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또한, 남성으로 컨셉을 잡은것을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이어나가기 위해, 남성의 기본적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체형을 갖고 있는 Y봇으로 했다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,7 +1002,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -899,6 +1048,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -914,6 +1066,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB3FBC65-D87E-5828-D096-D192DA1F8075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381124" y="7324725"/>
+          <a:ext cx="2743201" cy="6496050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E7CBB9-8C34-4DAB-D072-7F00A4414247}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="7315199"/>
+          <a:ext cx="2743200" cy="2752725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1899,7 +2156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906B5704-5E23-428B-B686-895C5FFAFFB0}">
   <dimension ref="A2:Z111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
@@ -2376,4 +2633,422 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9287189F-8244-4ADF-80A3-2E7893129A75}">
+  <dimension ref="A2:Z68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P38" workbookViewId="0">
+      <selection activeCell="Y51" sqref="Y51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="M36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C37" s="4"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="5"/>
+      <c r="N37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C38" s="4"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="5"/>
+      <c r="N38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C39" s="4"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="5"/>
+      <c r="N39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C40" s="4"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C41" s="4"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="5"/>
+      <c r="N41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C42" s="4"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="5"/>
+      <c r="N42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C43" s="4"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C44" s="4"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="5"/>
+      <c r="M44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C45" s="4"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="5"/>
+      <c r="N45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C46" s="4"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="5"/>
+      <c r="N46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C47" s="4"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="5"/>
+      <c r="N47" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C48" s="4"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="5"/>
+      <c r="N48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C49" s="4"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C50" s="4"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="5"/>
+      <c r="H50" t="s">
+        <v>180</v>
+      </c>
+      <c r="N50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C51" s="4"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="5"/>
+      <c r="N51" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C52" s="4"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="5"/>
+      <c r="N52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C53" s="4"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C54" s="4"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C55" s="4"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C56" s="4"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C57" s="4"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C58" s="4"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C59" s="4"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C60" s="4"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C61" s="4"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C62" s="4"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C63" s="4"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C64" s="4"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C65" s="4"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C66" s="6"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="8"/>
+      <c r="G66" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/아카데미 수업내용 6월/게임 기획서/김혜령(6월).xlsx
+++ b/아카데미 수업내용 6월/게임 기획서/김혜령(6월).xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\아카데미 수업내용 6월\게임 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7B5704-7334-4421-9EAB-D47DF8E4D14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD8FEC3-36F8-45A9-9050-1DD29680EDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16080" firstSheet="1" activeTab="2" xr2:uid="{85D800F9-F0EC-4E12-BA3D-62021A8D4369}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{85D800F9-F0EC-4E12-BA3D-62021A8D4369}"/>
   </bookViews>
   <sheets>
     <sheet name="6.25 런 앤 펀치 데이터테이블 실습" sheetId="1" r:id="rId1"/>
     <sheet name="6.28 - 7.01 프로토 타입 기획서 준비 페이지" sheetId="2" r:id="rId2"/>
     <sheet name="7.02~7.05 pc와 pc 기술 프로토타입 기획서" sheetId="3" r:id="rId3"/>
+    <sheet name="우선순위 임시" sheetId="4" r:id="rId4"/>
+    <sheet name="우선순위" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="330">
   <si>
     <t>PC 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -802,6 +804,412 @@
   </si>
   <si>
     <t>체형을 갖고 있는 Y봇으로 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분 1</t>
+  </si>
+  <si>
+    <t>구분 2</t>
+  </si>
+  <si>
+    <t>구분 3</t>
+  </si>
+  <si>
+    <t>구분 4</t>
+  </si>
+  <si>
+    <t>내용</t>
+  </si>
+  <si>
+    <t>초기값</t>
+  </si>
+  <si>
+    <t>우선순위</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>외형</t>
+  </si>
+  <si>
+    <t>PC_A</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>주인공 캐릭터 A / 근육질 남성</t>
+  </si>
+  <si>
+    <t>공통</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>체력</t>
+  </si>
+  <si>
+    <t>0이 되면 사망하는 체력</t>
+  </si>
+  <si>
+    <t>HP 4</t>
+  </si>
+  <si>
+    <t>기준 공격력</t>
+  </si>
+  <si>
+    <t>모든 공격의 기준이 되는 기준 공격력</t>
+  </si>
+  <si>
+    <t>Attack 1</t>
+  </si>
+  <si>
+    <t>기술자원</t>
+  </si>
+  <si>
+    <t>필살기를 사용하기 위한 게이지</t>
+  </si>
+  <si>
+    <t>규칙</t>
+  </si>
+  <si>
+    <t>기본행위</t>
+  </si>
+  <si>
+    <t>이동</t>
+  </si>
+  <si>
+    <t>이동키를 눌러 8방향 이동 가능</t>
+  </si>
+  <si>
+    <t>화살표 방향키</t>
+  </si>
+  <si>
+    <t>이동 중 파괴 불가능 오브젝트와 벽에 부딫히면 벽을 따라 밀림</t>
+  </si>
+  <si>
+    <t>헹위</t>
+  </si>
+  <si>
+    <t>이동 중 공격이 불가능</t>
+  </si>
+  <si>
+    <t>상태</t>
+  </si>
+  <si>
+    <t>전투기술</t>
+  </si>
+  <si>
+    <t>판정</t>
+  </si>
+  <si>
+    <t>판정이 함께 이루어질 경우, 판정된 모든 효과를 한번에 발동함.</t>
+  </si>
+  <si>
+    <t>움직임 없이 정지해 있는 상태와 이동하는 상태를 포함하는 Idle 상태가 있다.</t>
+  </si>
+  <si>
+    <t>조작</t>
+  </si>
+  <si>
+    <t>연출</t>
+  </si>
+  <si>
+    <t>PC 근처가 반짝이며 필살기 사용이 가능한 Idle 상태가 있다.</t>
+  </si>
+  <si>
+    <t>일반공격</t>
+  </si>
+  <si>
+    <t>공격 버튼을 누르면, 바라보고 있는 방향으로 공격</t>
+  </si>
+  <si>
+    <t>1회</t>
+  </si>
+  <si>
+    <t>사운드</t>
+  </si>
+  <si>
+    <t>피격 성공시 나오는 타격 사운드</t>
+  </si>
+  <si>
+    <t>애니메이션</t>
+  </si>
+  <si>
+    <t>주먹을 내지르는 공격 애니메이션</t>
+  </si>
+  <si>
+    <t>적을 처지하면 날려버림</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>이펙트</t>
+  </si>
+  <si>
+    <t>피격 성공시 나오는 타격 이펙트</t>
+  </si>
+  <si>
+    <t>일반공격 키를 누르면 공격</t>
+  </si>
+  <si>
+    <t>X키</t>
+  </si>
+  <si>
+    <t>추가버튼 입력으로 추가 공격</t>
+  </si>
+  <si>
+    <t>3회</t>
+  </si>
+  <si>
+    <t>효과</t>
+  </si>
+  <si>
+    <t>적 공격시, 대미지 부여</t>
+  </si>
+  <si>
+    <t>대미지 1</t>
+  </si>
+  <si>
+    <t>3타 공격 성공시, 적에게 기절 부여</t>
+  </si>
+  <si>
+    <t>1s</t>
+  </si>
+  <si>
+    <t>오브젝트 공격시 대미지 부여</t>
+  </si>
+  <si>
+    <t>회피(더킹)</t>
+  </si>
+  <si>
+    <t>사용 시 무적</t>
+  </si>
+  <si>
+    <t>사용 시 쿨타임</t>
+  </si>
+  <si>
+    <t>2s</t>
+  </si>
+  <si>
+    <t>짧은 시간 내에 방향키를 눌러서 회피의 방향을 정할 수 있음</t>
+  </si>
+  <si>
+    <t>회피 성공시 나오는 회피(바람) 사운드</t>
+  </si>
+  <si>
+    <t>회피하는 동작 애니메이션</t>
+  </si>
+  <si>
+    <t>회피시 pc의 등쪽에서 나오는 회피 이펙트</t>
+  </si>
+  <si>
+    <t>사용시 일정 거리를 순식간에 뛰쳐 나감</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>회피 키를 누르면 회피</t>
+  </si>
+  <si>
+    <t>Z키</t>
+  </si>
+  <si>
+    <t>강공격</t>
+  </si>
+  <si>
+    <t>공격 버튼을 누르면, 더킹을 진행해 바라본 방향으로 공격함</t>
+  </si>
+  <si>
+    <t>회피중 공격키를 누를시 강공격이 즉시 발동</t>
+  </si>
+  <si>
+    <t>강공격 사운드</t>
+  </si>
+  <si>
+    <t>강공격 동작 애니메이션</t>
+  </si>
+  <si>
+    <t>회피 도중, 벽과 파괴 불가능 오브젝트에 부딫히면 벽을 따라 밀림</t>
+  </si>
+  <si>
+    <t>강공격 이펙트</t>
+  </si>
+  <si>
+    <t>강공격 키를 누르면 강공격</t>
+  </si>
+  <si>
+    <t>Z + X</t>
+  </si>
+  <si>
+    <t>대미지 2</t>
+  </si>
+  <si>
+    <t>패링</t>
+  </si>
+  <si>
+    <t>강공격이 투사체에 맞으면 발동</t>
+  </si>
+  <si>
+    <t>범위 내 투사체 소멸</t>
+  </si>
+  <si>
+    <t>2M / 부채꼴</t>
+  </si>
+  <si>
+    <t>패링 사운드</t>
+  </si>
+  <si>
+    <t>패링 애니메이션</t>
+  </si>
+  <si>
+    <t>범위 연출</t>
+  </si>
+  <si>
+    <t>패링 이펙트</t>
+  </si>
+  <si>
+    <t>강공격 키를 이용해 발동</t>
+  </si>
+  <si>
+    <t>파괴 가능 오브젝트에 명중시 대미지</t>
+  </si>
+  <si>
+    <t>파괴 불가능 오브젝트에 막힘</t>
+  </si>
+  <si>
+    <t>범위 삭제</t>
+  </si>
+  <si>
+    <t>패링 성공시 기술 자원을 회복함</t>
+  </si>
+  <si>
+    <t>초기화</t>
+  </si>
+  <si>
+    <t>패링 성공시 회피(더킹)의 쿨타임을 초기화함</t>
+  </si>
+  <si>
+    <t>필살기</t>
+  </si>
+  <si>
+    <t>반짝이는 Idle 상태에서만 사용가능</t>
+  </si>
+  <si>
+    <t>게이지가 완전히 채워졌을때 발동가능</t>
+  </si>
+  <si>
+    <t>기술 자원</t>
+  </si>
+  <si>
+    <t>필살기 성공 타격 사운드</t>
+  </si>
+  <si>
+    <t>필살기 범위 사운드</t>
+  </si>
+  <si>
+    <t>패링 동작 애니메이션</t>
+  </si>
+  <si>
+    <t>카메라 시점 움직임</t>
+  </si>
+  <si>
+    <t>줌인- 줌아웃 - 줌인</t>
+  </si>
+  <si>
+    <t>슬로우모션</t>
+  </si>
+  <si>
+    <t>1s / 0.25배속</t>
+  </si>
+  <si>
+    <t>공격키를 누르면 즉시 발동</t>
+  </si>
+  <si>
+    <t>필살기 사용시 게이지를 소모함</t>
+  </si>
+  <si>
+    <t>5M / 부채꼴</t>
+  </si>
+  <si>
+    <t>대미지 4</t>
+  </si>
+  <si>
+    <t>범위내 적에게 기절을 부여</t>
+  </si>
+  <si>
+    <t>3s</t>
+  </si>
+  <si>
+    <t>적</t>
+  </si>
+  <si>
+    <t>조준타입</t>
+  </si>
+  <si>
+    <t>조준</t>
+  </si>
+  <si>
+    <t>항상 PC를 조준하고 있음</t>
+  </si>
+  <si>
+    <t>미조준</t>
+  </si>
+  <si>
+    <t>정해진 방향을 향해 조준하고 있음</t>
+  </si>
+  <si>
+    <t>발사타입</t>
+  </si>
+  <si>
+    <t>PC에 피격되면 사라짐</t>
+  </si>
+  <si>
+    <t>벽과 부서지지 않는 오브젝트에 피격되면 사라짐</t>
+  </si>
+  <si>
+    <t>단발</t>
+  </si>
+  <si>
+    <t>일정간격으로 발사됨</t>
+  </si>
+  <si>
+    <t>0.5s / 1발</t>
+  </si>
+  <si>
+    <t>부채꼴</t>
+  </si>
+  <si>
+    <t>일정간격으로 일정 범위 안에 일정 갯수의 탄알을 발사</t>
+  </si>
+  <si>
+    <t>1s / 9발</t>
+  </si>
+  <si>
+    <t>샷건</t>
+  </si>
+  <si>
+    <t>일정 범위 안에 일정 갯수의 탄알을 발사</t>
+  </si>
+  <si>
+    <t>1s / 11발</t>
+  </si>
+  <si>
+    <t>스나이핑</t>
+  </si>
+  <si>
+    <t>조준 방향으로 붉은 선이 나오고 일정 시간이 지나면 발사</t>
+  </si>
+  <si>
+    <t>조준 1s / 대기 1s / 1발</t>
+  </si>
+  <si>
+    <t>ㅇ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,7 +1217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,16 +1242,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -996,13 +1416,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1048,8 +1498,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2639,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9287189F-8244-4ADF-80A3-2E7893129A75}">
   <dimension ref="A2:Z68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P38" workbookViewId="0">
-      <selection activeCell="Y51" sqref="Y51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2794,8 +3259,6 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
       <c r="F37" s="5"/>
       <c r="N37" t="s">
         <v>182</v>
@@ -2803,8 +3266,6 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C38" s="4"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
       <c r="F38" s="5"/>
       <c r="N38" t="s">
         <v>183</v>
@@ -2812,8 +3273,6 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="4"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
       <c r="F39" s="5"/>
       <c r="N39" t="s">
         <v>184</v>
@@ -2821,14 +3280,10 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C40" s="4"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C41" s="4"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
       <c r="F41" s="5"/>
       <c r="N41" t="s">
         <v>185</v>
@@ -2836,8 +3291,6 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C42" s="4"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
       <c r="F42" s="5"/>
       <c r="N42" t="s">
         <v>186</v>
@@ -2845,14 +3298,10 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C43" s="4"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C44" s="4"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
       <c r="F44" s="5"/>
       <c r="M44" t="s">
         <v>187</v>
@@ -2860,8 +3309,6 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C45" s="4"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
       <c r="F45" s="5"/>
       <c r="N45" t="s">
         <v>188</v>
@@ -2869,8 +3316,6 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C46" s="4"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
       <c r="F46" s="5"/>
       <c r="N46" t="s">
         <v>189</v>
@@ -2878,8 +3323,6 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C47" s="4"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
       <c r="F47" s="5"/>
       <c r="N47" t="s">
         <v>190</v>
@@ -2887,8 +3330,6 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C48" s="4"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
       <c r="F48" s="5"/>
       <c r="N48" t="s">
         <v>191</v>
@@ -2896,14 +3337,10 @@
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C49" s="4"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C50" s="4"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
       <c r="F50" s="5"/>
       <c r="H50" t="s">
         <v>180</v>
@@ -2914,8 +3351,6 @@
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C51" s="4"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
       <c r="F51" s="5"/>
       <c r="N51" t="s">
         <v>193</v>
@@ -2923,8 +3358,6 @@
     </row>
     <row r="52" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C52" s="4"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
       <c r="F52" s="5"/>
       <c r="N52" t="s">
         <v>194</v>
@@ -2932,80 +3365,54 @@
     </row>
     <row r="53" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C53" s="4"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C54" s="4"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C55" s="4"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C56" s="4"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C57" s="4"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C58" s="4"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
       <c r="F58" s="5"/>
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C59" s="4"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
       <c r="F59" s="5"/>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C60" s="4"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
       <c r="F60" s="5"/>
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C61" s="4"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C62" s="4"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
       <c r="F62" s="5"/>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C63" s="4"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C64" s="4"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
       <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C65" s="4"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
       <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
@@ -3051,4 +3458,2702 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B95D852-8420-4894-8CC4-D66208203FDC}">
+  <dimension ref="A1:P105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T94" sqref="T94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="15"/>
+      <c r="K1" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+    </row>
+    <row r="2" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="15"/>
+      <c r="K2" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+    </row>
+    <row r="3" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="18"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="15"/>
+      <c r="K4" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+    </row>
+    <row r="5" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="15"/>
+      <c r="K5" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="15"/>
+      <c r="K6" s="20">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="15"/>
+      <c r="K7" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="15"/>
+      <c r="K8" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="15"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="15"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="15"/>
+      <c r="K11" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="15"/>
+      <c r="K12" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="15"/>
+      <c r="K14" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="15"/>
+      <c r="K15" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="15"/>
+      <c r="K16" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+    </row>
+    <row r="17" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="15"/>
+      <c r="K17" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+    </row>
+    <row r="18" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="15"/>
+      <c r="K18" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+    </row>
+    <row r="19" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="15"/>
+      <c r="K19" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+    </row>
+    <row r="20" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="15"/>
+      <c r="K20" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+    </row>
+    <row r="21" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="15"/>
+      <c r="K21" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+    </row>
+    <row r="22" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="15"/>
+      <c r="K22" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+    </row>
+    <row r="23" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="15"/>
+      <c r="K23" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+    </row>
+    <row r="24" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="18"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+    </row>
+    <row r="25" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="15"/>
+      <c r="K25" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+    </row>
+    <row r="26" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="15"/>
+      <c r="K26" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+    </row>
+    <row r="27" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="15"/>
+      <c r="K27" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+    </row>
+    <row r="28" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="15"/>
+      <c r="K28" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+    </row>
+    <row r="29" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="15"/>
+      <c r="K29" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+    </row>
+    <row r="30" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="15"/>
+      <c r="K30" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+    </row>
+    <row r="31" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="15"/>
+      <c r="K31" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+    </row>
+    <row r="32" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="15"/>
+      <c r="K32" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+    </row>
+    <row r="33" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+    </row>
+    <row r="34" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="15"/>
+      <c r="K34" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+    </row>
+    <row r="35" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="15"/>
+      <c r="K35" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+    </row>
+    <row r="36" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="15"/>
+      <c r="K36" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+    </row>
+    <row r="37" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="15"/>
+      <c r="K37" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+    </row>
+    <row r="38" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="15"/>
+      <c r="K38" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+    </row>
+    <row r="39" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="15"/>
+      <c r="K39" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+    </row>
+    <row r="40" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="15"/>
+      <c r="K40" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+    </row>
+    <row r="41" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="15"/>
+      <c r="K41" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+    </row>
+    <row r="42" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="15"/>
+      <c r="K42" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+    </row>
+    <row r="43" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="15"/>
+      <c r="K43" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+    </row>
+    <row r="44" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="18"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+    </row>
+    <row r="45" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="15"/>
+      <c r="K45" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+    </row>
+    <row r="46" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="15"/>
+      <c r="K46" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+    </row>
+    <row r="47" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="15"/>
+      <c r="K47" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+    </row>
+    <row r="48" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="15"/>
+      <c r="K48" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+    </row>
+    <row r="49" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="15"/>
+      <c r="K49" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+    </row>
+    <row r="50" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="15"/>
+      <c r="K50" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+    </row>
+    <row r="51" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="15"/>
+      <c r="K51" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+    </row>
+    <row r="52" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="15"/>
+      <c r="K52" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+    </row>
+    <row r="53" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="15"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+    </row>
+    <row r="54" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="15"/>
+      <c r="K54" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+    </row>
+    <row r="55" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="15"/>
+      <c r="K55" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+    </row>
+    <row r="56" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="15"/>
+      <c r="K56" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+    </row>
+    <row r="57" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="18"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+    </row>
+    <row r="58" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="15"/>
+      <c r="K58" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+    </row>
+    <row r="59" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="15"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+    </row>
+    <row r="60" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="15"/>
+      <c r="K60" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+    </row>
+    <row r="61" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="15"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+    </row>
+    <row r="62" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="15"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+    </row>
+    <row r="63" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="15"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+    </row>
+    <row r="64" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="15"/>
+      <c r="K64" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+    </row>
+    <row r="65" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="15"/>
+      <c r="K65" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+    </row>
+    <row r="66" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="15"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+    </row>
+    <row r="67" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="15"/>
+      <c r="K67" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+    </row>
+    <row r="68" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="15"/>
+      <c r="K68" s="20">
+        <v>-1</v>
+      </c>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+    </row>
+    <row r="69" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="15"/>
+      <c r="K69" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+    </row>
+    <row r="70" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="15"/>
+      <c r="K70" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+    </row>
+    <row r="71" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="15"/>
+      <c r="K71" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+    </row>
+    <row r="72" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="18"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+    </row>
+    <row r="73" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="15"/>
+      <c r="K73" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+    </row>
+    <row r="74" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="15"/>
+      <c r="K74" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+    </row>
+    <row r="75" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="15"/>
+      <c r="K75" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+    </row>
+    <row r="76" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="15"/>
+      <c r="K76" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+    </row>
+    <row r="77" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="15"/>
+      <c r="K77" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+    </row>
+    <row r="78" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="15"/>
+      <c r="K78" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="16"/>
+    </row>
+    <row r="79" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="15"/>
+      <c r="K79" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+    </row>
+    <row r="80" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="15"/>
+      <c r="K80" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
+      <c r="P80" s="16"/>
+    </row>
+    <row r="81" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="15"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="16"/>
+    </row>
+    <row r="82" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="15"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="16"/>
+    </row>
+    <row r="83" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="15"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+    </row>
+    <row r="84" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="15"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+    </row>
+    <row r="85" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="15"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+    </row>
+    <row r="86" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="15"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="16"/>
+    </row>
+    <row r="87" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="15"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
+      <c r="P87" s="16"/>
+    </row>
+    <row r="88" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="15"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="16"/>
+    </row>
+    <row r="89" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="15"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="16"/>
+    </row>
+    <row r="90" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="15"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="16"/>
+      <c r="P90" s="16"/>
+    </row>
+    <row r="91" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="15"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="16"/>
+      <c r="P91" s="16"/>
+    </row>
+    <row r="92" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="15"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
+    </row>
+    <row r="93" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="16"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="16"/>
+    </row>
+    <row r="94" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="15"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="16"/>
+    </row>
+    <row r="95" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="15"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+    </row>
+    <row r="96" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="15"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="16"/>
+    </row>
+    <row r="97" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="15"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="15"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="16"/>
+    </row>
+    <row r="98" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="16"/>
+      <c r="N98" s="16"/>
+      <c r="O98" s="16"/>
+    </row>
+    <row r="99" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="16"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="16"/>
+    </row>
+    <row r="100" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="16"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="16"/>
+    </row>
+    <row r="101" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="16"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="16"/>
+    </row>
+    <row r="102" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="15"/>
+      <c r="M102" s="16"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="16"/>
+    </row>
+    <row r="103" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="16"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="16"/>
+    </row>
+    <row r="104" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="15"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="16"/>
+    </row>
+    <row r="105" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="15"/>
+      <c r="L105" s="15"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB3CA6A-723A-4F86-BB6A-272314508058}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>